--- a/src/assets/report resistance database.xlsx
+++ b/src/assets/report resistance database.xlsx
@@ -19,36 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Model :</t>
   </si>
   <si>
-    <t>Measurement Pattern :</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Resistance Database.</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>NG sample</t>
-  </si>
-  <si>
-    <t>Resistance reference with GND (k ꭥ)</t>
-  </si>
-  <si>
-    <t>Resistance reference with VCC (k ꭥ)</t>
-  </si>
-  <si>
-    <t>Resistance between terminal (k ꭥ)</t>
+    <t>Confirm input resistance of NG sample compare with Good sample.</t>
   </si>
 </sst>
 </file>
@@ -79,21 +55,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,119 +71,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,136 +370,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="15.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="15" style="1" customWidth="1"/>
-    <col min="18" max="35" width="15.44140625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="75" width="18" style="1" customWidth="1"/>
+    <col min="76" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
-        <v>4</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="G6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
